--- a/doc/log/201608040127-邹龙康.xlsx
+++ b/doc/log/201608040127-邹龙康.xlsx
@@ -18,14 +18,75 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>票据撮合系统工作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗留问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建完成项目最基本雏形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完善完整，留待后期完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成项目基本目录结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期可以调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +110,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +139,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +184,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +219,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +401,1449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>43415</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>43416</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>43417</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>43418</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>43419</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>43420</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>43421</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>43422</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>43423</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>43424</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>43425</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>43426</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>43427</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>43428</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>43429</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>43430</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>43431</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>43432</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>43433</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>43434</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>43435</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>43436</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>43437</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>43438</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>43439</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>43440</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>43441</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>43442</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>43443</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>43444</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>43445</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>43446</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>43447</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="157">
+    <mergeCell ref="A78:B79"/>
+    <mergeCell ref="C78:G79"/>
+    <mergeCell ref="H78:K79"/>
+    <mergeCell ref="L78:M79"/>
+    <mergeCell ref="A74:B75"/>
+    <mergeCell ref="C74:G75"/>
+    <mergeCell ref="H74:K75"/>
+    <mergeCell ref="L74:M75"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="C76:G77"/>
+    <mergeCell ref="H76:K77"/>
+    <mergeCell ref="L76:M77"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="H70:K71"/>
+    <mergeCell ref="L70:M71"/>
+    <mergeCell ref="A72:B73"/>
+    <mergeCell ref="C72:G73"/>
+    <mergeCell ref="H72:K73"/>
+    <mergeCell ref="L72:M73"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:G67"/>
+    <mergeCell ref="H66:K67"/>
+    <mergeCell ref="L66:M67"/>
+    <mergeCell ref="A68:B69"/>
+    <mergeCell ref="C68:G69"/>
+    <mergeCell ref="H68:K69"/>
+    <mergeCell ref="L68:M69"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:G63"/>
+    <mergeCell ref="H62:K63"/>
+    <mergeCell ref="L62:M63"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:G65"/>
+    <mergeCell ref="H64:K65"/>
+    <mergeCell ref="L64:M65"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:G59"/>
+    <mergeCell ref="H58:K59"/>
+    <mergeCell ref="L58:M59"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:G61"/>
+    <mergeCell ref="H60:K61"/>
+    <mergeCell ref="L60:M61"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="H54:K55"/>
+    <mergeCell ref="L54:M55"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:G57"/>
+    <mergeCell ref="H56:K57"/>
+    <mergeCell ref="L56:M57"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:G51"/>
+    <mergeCell ref="H50:K51"/>
+    <mergeCell ref="L50:M51"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:G53"/>
+    <mergeCell ref="H52:K53"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C46:G47"/>
+    <mergeCell ref="H46:K47"/>
+    <mergeCell ref="L46:M47"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:G49"/>
+    <mergeCell ref="H48:K49"/>
+    <mergeCell ref="L48:M49"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:G43"/>
+    <mergeCell ref="H42:K43"/>
+    <mergeCell ref="L42:M43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="C44:G45"/>
+    <mergeCell ref="H44:K45"/>
+    <mergeCell ref="L44:M45"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="H38:K39"/>
+    <mergeCell ref="L38:M39"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:G41"/>
+    <mergeCell ref="H40:K41"/>
+    <mergeCell ref="L40:M41"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:G35"/>
+    <mergeCell ref="H34:K35"/>
+    <mergeCell ref="L34:M35"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="C36:G37"/>
+    <mergeCell ref="H36:K37"/>
+    <mergeCell ref="L36:M37"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:G31"/>
+    <mergeCell ref="H30:K31"/>
+    <mergeCell ref="L30:M31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:G33"/>
+    <mergeCell ref="H32:K33"/>
+    <mergeCell ref="L32:M33"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:G27"/>
+    <mergeCell ref="H26:K27"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:G29"/>
+    <mergeCell ref="H28:K29"/>
+    <mergeCell ref="L28:M29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:G25"/>
+    <mergeCell ref="H24:K25"/>
+    <mergeCell ref="L24:M25"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:G7"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:G9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="L4:M5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>